--- a/db/공항 절차.xlsx
+++ b/db/공항 절차.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ICN-AI-chatbot\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B089146D-F386-4C90-A285-7C752E4F4FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00210EAC-6771-4F47-AE7B-E84E0C73A8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40185" yWindow="5835" windowWidth="21600" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="4380" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="382">
   <si>
     <t>procedure_type</t>
   </si>
@@ -945,6 +945,312 @@
   </si>
   <si>
     <t>국내선(국제선 환승 전용 내항기)을 이용하여 인천공항에 도착한 후 국제선으로 환승하는 경우, 3층 출국장으로 이동해야 합니다. 특히 대구 출발 승객은 환승 보안검색을 반드시 받아야 합니다. 탑승구 확인 후 해당 게이트로 이동하여 탑승합니다. 다음 국제선 항공편 터미널에 따라 이동 경로가 달라집니다.</t>
+  </si>
+  <si>
+    <t>비자 정책 변경 확인</t>
+  </si>
+  <si>
+    <t>대한민국 비자 정책은 수시로 변경될 수 있으므로, 최신 정보는 대한민국 외교부 웹사이트(www.mofa.go.kr) 또는 재외공관(대사관/영사관) 웹사이트를 통해 확인하시기 바랍니다. 특히, 입국하시려는 국가의 비자 면제 협정 여부, 비자 종류별 신청 요건 및 필요 서류 등을 출국 전에 반드시 확인해야 합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어린이/유아 비자 신청 여부</t>
+  </si>
+  <si>
+    <t>어린이 및 유아도 체류 목적 및 국적에 따라 비자가 필요할 수 있습니다. 성인과 동일하게 대한민국 외교부 웹사이트 또는 재외공관(대사관/영사관)에 문의하여 정확한 정보를 확인해야 합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비자 필요 국가 명단 확인</t>
+  </si>
+  <si>
+    <t>비자 필요 국가 명단은 외교 상황 및 정책에 따라 변동될 수 있습니다. 출국 전 반드시 대한민국 외교부 웹사이트(www.mofa.go.kr)의 '비자' 또는 '국가/지역별 안전정보' 섹션에서 최신 정보를 확인하시기 바랍니다.</t>
+  </si>
+  <si>
+    <t>비자의 유효 기간은 비자 종류 및 발급 조건에 따라 다릅니다. 예상 입국 날짜가 변경될 경우, 기존에 발급받은 비자가 여전히 유효한지 여부를 확인하기 위해 주한 외국 대사관 또는 비자 발급 기관에 직접 문의하여야 합니다. 비자 만료일, 체류 기간, 입국 횟수 제한 등을 꼼꼼히 확인하시기 바랍니다.</t>
+  </si>
+  <si>
+    <t>기존 비자 유효성 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 국가 비자 입국 제한 정책 강화 가능성</t>
+  </si>
+  <si>
+    <t>국제 정세, 보건 상황(예: 전염병 유행), 외교 관계 등 다양한 요인에 따라 특정 국가에 대한 비자 및 입국 제한 정책이 예고 없이 강화될 수 있습니다. 여행 계획을 세우기 전, 반드시 대한민국 외교부의 해외안전여행 홈페이지(www.0404.go.kr) 또는 주한 외국 대사관의 공지사항을 수시로 확인하여 변경 사항을 인지해야 합니다.</t>
+  </si>
+  <si>
+    <t>기내식 잔여물 반입 금지</t>
+  </si>
+  <si>
+    <t>기내에서 제공된 식사 중 남은 육류, 유제품, 과일 등 신선 식품은 가축 전염병 또는 식물병해충 유입 방지를 위해 국내로 반입할 수 없습니다. 남은 음식물은 항공기 내에서 처리하거나 폐기해야 합니다.</t>
+  </si>
+  <si>
+    <t>검역 절차 안내 장소</t>
+  </si>
+  <si>
+    <t>검역 절차에 대한 자세한 안내는 인천국제공항 입국장 내 검역대와 농림축산검역본부, 국립야생동물질병관리원, 국립수산물품질관리원 등 관련 정부 기관의 안내 데스크 또는 공식 웹사이트에서 받을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>건강 검역 규정 변경 확인</t>
+  </si>
+  <si>
+    <t>건강 검역 규정은 감염병 상황 등에 따라 수시로 변경될 수 있습니다. 최신 검역 규정 및 변경 사항은 질병관리청(KDCA) 웹사이트(www.kdca.go.kr) 또는 인천국제공항 검역소에서 확인할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>휴대 및 위탁 수하물 검사</t>
+  </si>
+  <si>
+    <t>기내 휴대 수하물과 위탁 수하물 모두 세관 검사 대상입니다. 여행자가 소지한 모든 물품은 세관 신고 대상이 될 수 있으며, 필요 시 개봉 검사가 진행될 수 있습니다.</t>
+  </si>
+  <si>
+    <t>반입 금지 물품 현장 압수 및 법적 불이익</t>
+  </si>
+  <si>
+    <t>반입이 금지되거나 제한된 물품이 공항 도착장에서 적발될 경우, 해당 물품은 현장에서 즉시 압수될 수 있습니다. 여행객이 해당 물품의 불법성을 몰랐다고 하더라도, 법적으로는 불이익(벌금, 과태료, 경우에 따라 형사 처벌)을 받을 수 있으므로, 출국 전 반드시 반입 규정을 확인해야 합니다.</t>
+  </si>
+  <si>
+    <t>외국 합법 제품의 국내 반입 제한</t>
+  </si>
+  <si>
+    <t>특정 물품이 외국에서 합법적인 제품이더라도 한국의 법률 및 규정(예: 전염병 예방, 환경 보호, 사회 안녕 등)에 따라 반입이 금지되거나 제한될 수 있습니다. 예를 들어, 마약류, 음란물, 특정 동식물 제품 등은 국내 반입이 엄격히 통제됩니다.</t>
+  </si>
+  <si>
+    <t>고가 선물에 대한 제재</t>
+  </si>
+  <si>
+    <t>일반적인 선물이라도 면세 한도(USD 800)를 초과하는 고가의 물품은 세금을 납부해야 합니다. 신고하지 않고 반입을 시도할 경우, 관세법에 따라 가산세가 부과되거나 물품이 압수될 수 있습니다.</t>
+  </si>
+  <si>
+    <t>검역 대상 품목 미신고 시 제재</t>
+  </si>
+  <si>
+    <t>검역 대상 품목을 신고하지 않거나 허위로 신고할 경우, 관련 법령에 따라 과태료 부과 등의 벌금 또는 제재를 받을 수 있습니다. 정확한 정보는 농림축산검역본부 웹사이트(www.qia.go.kr)에서 확인하시기 바랍니다.</t>
+  </si>
+  <si>
+    <t>인천공항 반입 금지 물품 확인</t>
+  </si>
+  <si>
+    <t>반입 금지 물품에 대한 최신 정보는 관세청 웹사이트(www.customs.go.kr) 또는 인천공항세관 웹사이트에서 확인할 수 있습니다. 출국 전 반드시 확인하여 불이익을 받지 않도록 주의하시기 바랍니다.</t>
+  </si>
+  <si>
+    <t>수하물 검사 시 주로 적발되는 금지 품목</t>
+  </si>
+  <si>
+    <t>수하물 검사 시 주로 적발되는 금지 품목은 마약류, 총포·도검류, 위조품, 상업용 물품(면세 범위를 초과하는 대량 구매 물품), 그리고 검역 대상이지만 신고되지 않은 축산물 및 식물류 등입니다. 이러한 품목들은 세관 검사 시 압수되거나 벌금, 형사 처벌의 대상이 될 수 있습니다.</t>
+  </si>
+  <si>
+    <t>여권 대리 신청 대상</t>
+  </si>
+  <si>
+    <t>여권은 원칙적으로 본인이 신청해야 합니다. 다만, 질병, 장애, 해외 거주, 미성년자 등 일부 예외적인 경우에 한해 법정대리인, 배우자, 직계 친족 등이 대리 신청할 수 있습니다. 자세한 자격 요건은 외교부 여권안내 홈페이지를 확인해야 합니다.</t>
+  </si>
+  <si>
+    <t>복수여권과 단수여권의 차이</t>
+  </si>
+  <si>
+    <t>복수여권은 유효기간 내에 횟수 제한 없이 여러 국가를 여행할 수 있는 여권이며, 단수여권은 1년 이내에 단 1회만 특정 국가로 여행할 수 있는 여권입니다. 단수여권은 긴급 상황 시 발급되거나 특정 국가 방문 시에만 사용되는 등 제한적인 용도로 활용됩니다.</t>
+  </si>
+  <si>
+    <t>관용여권 발급 대상</t>
+  </si>
+  <si>
+    <t>관용여권은 정부의 공무 또는 공공기관의 업무를 위해 출국하는 공무원 및 공공기관 직원에 한해 발급됩니다. 일반 여권과는 달리 특정 공무 수행을 위한 목적으로만 사용됩니다.</t>
+  </si>
+  <si>
+    <t>여권 발급 신청 필요 서류</t>
+  </si>
+  <si>
+    <t>여권 발급 신청 시 필요한 기본 서류는 신분증, 여권용 사진, 여권발급신청서입니다. 미성년자의 경우 법정대리인의 동의서 및 신분증, 가족관계증명서 등이 추가로 필요합니다. 자세한 내용은 외교부 여권안내 홈페이지를 참고하십시오.</t>
+  </si>
+  <si>
+    <t>여권 사진 규정</t>
+  </si>
+  <si>
+    <t>여권 사진은 6개월 이내 촬영된 사진으로, 흰색 배경, 정면 응시, 귀와 눈썹이 보여야 하는 등 엄격한 규정을 따릅니다. 모자, 선글라스 착용은 불가하며, 컬러렌즈 착용도 허용되지 않습니다. 규격에 맞지 않는 사진은 접수되지 않을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>가족 대리 여권 신청 필요 서류</t>
+  </si>
+  <si>
+    <t>가족이 대리로 여권을 신청할 경우, 신청인 본인의 신분증, 여권용 사진, 여권발급신청서 외에 대리인의 신분증, 위임장, 가족관계증명서 등 가족 관계를 증명할 수 있는 서류가 필요합니다. 대리 신청 전 반드시 외교부 웹사이트에서 최신 정보를 확인하세요.</t>
+  </si>
+  <si>
+    <t>여권 수수료</t>
+  </si>
+  <si>
+    <t>여권 종류(복수/단수, 유효기간) 및 면수에 따라 수수료가 상이합니다. 일반적으로 10년 유효기간의 48면 복수여권이 가장 높은 수수료를 부과합니다. 외교부 여권안내 홈페이지에서 상세한 수수료를 확인할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>국제운전면허증 유효기간</t>
+  </si>
+  <si>
+    <t>국제운전면허증의 유효기간은 발급일로부터 1년입니다. 유효기간 내에만 해외에서 운전할 수 있으므로, 출국 전 반드시 유효기간을 확인해야 합니다.</t>
+  </si>
+  <si>
+    <t>셀프 체크인 기기 위치</t>
+  </si>
+  <si>
+    <t>셀프 체크인 키오스크는 인천국제공항 각 여객터미널 출국장(3층) 곳곳에 설치되어 있습니다. 공항 안내 표지판을 참고하거나 공항 직원에게 문의하면 위치를 안내받을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>항공사 체크인 카운터 운영 시간</t>
+  </si>
+  <si>
+    <t>항공사 체크인 카운터는 항공편 출발 약 2~3시간 전부터 열리며, 출발 40분~1시간 전에는 마감됩니다. 항공사 및 노선별로 운영 시간이 다를 수 있으므로, 해당 항공사의 웹사이트 또는 항공권 정보를 통해 정확한 시간을 확인하는 것이 중요합니다.</t>
+  </si>
+  <si>
+    <t>기내 반입 가능 수하물 크기</t>
+  </si>
+  <si>
+    <t>기내 반입 가능한 수하물(휴대 수하물)은 일반적으로 3면의 합이 115cm(가로 55cm, 세로 40cm, 높이 20cm) 이내이며, 무게는 10~12kg 이내로 제한됩니다. 항공사별 규정이 다를 수 있으니 이용하는 항공사의 규정을 확인해야 합니다. (기내 반입 가능한 노트북 가방 크기는 이 일반 규정 내에 포함됨)</t>
+  </si>
+  <si>
+    <t>도심공항터미널 체크인 마감 시간</t>
+  </si>
+  <si>
+    <t>도심공항터미널의 체크인 마감 시간은 항공사 및 노선에 따라 다르지만, 일반적으로 항공편 출발 3시간 전입니다. 서울역과 광명역 터미널의 정확한 마감 시간은 각 터미널의 공식 웹사이트나 이용 항공사에 문의하여 확인해야 합니다.</t>
+  </si>
+  <si>
+    <t>깨지기 쉬운 물건 위탁 여부</t>
+  </si>
+  <si>
+    <t>도자기, 유리 제품 등 깨지기 쉬운 물건은 파손 위험이 크므로 위탁 수하물로 부치는 것을 권장하지 않습니다. 불가피하게 위탁해야 할 경우, 파손 면책 동의서를 작성해야 하며, 항공사 보험 적용이 제한될 수 있습니다. 가급적 기내 휴대하거나 전문 포장 서비스를 이용하는 것이 좋습니다.</t>
+  </si>
+  <si>
+    <t>무료 수하물 허용 범위 초과 시 조치</t>
+  </si>
+  <si>
+    <t>위탁 수하물의 무료 허용 범위를 초과하는 경우, 항공사의 규정에 따라 추가 요금이 부과됩니다. 초과 수하물 요금은 무게 초과, 크기 초과 등에 따라 상이하며, 항공사 카운터에서 현장 결제해야 합니다.</t>
+  </si>
+  <si>
+    <t>반려동물과 셀프체크인 이용</t>
+  </si>
+  <si>
+    <t>반려동물 동반 여행객은 셀프 체크인 키오스크를 이용할 수 없습니다. 반려동물 동반 시에는 반드시 항공사 유인 카운터에서 직접 체크인하고, 항공사 및 도착 국가의 규정에 따라 필요한 서류를 제출하며 반려동물 운송 절차를 따라야 합니다.</t>
+  </si>
+  <si>
+    <t>병무청 민원센터 운영시간</t>
+  </si>
+  <si>
+    <t>인천공항 제2여객터미널 정부종합행정센터 내 병무민원센터는 연중무휴 09:00부터 18:00까지 운영됩니다. 급하게 병역 관련 출국 허가가 필요한 경우 이용할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>외교부 여권민원센터 운영시간</t>
+  </si>
+  <si>
+    <t>인천공항 제1여객터미널에 위치한 외교부 여권민원센터는 평일 09:00부터 18:00까지 운영되며, 토요일, 일요일 및 공휴일은 휴무입니다. 긴급 여권 발급 등의 업무를 처리할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>국제질병퇴치기금 설명</t>
+  </si>
+  <si>
+    <t>국제질병퇴치기금은 해외 유입 감염병 예방 및 퇴치 활동, 개발도상국 감염병 지원 등을 위해 항공권에 포함되어 징수되는 기금입니다. 모든 국제선 항공권에 부과되며, 한국 정부의 국제 보건 협력 사업에 사용됩니다.</t>
+  </si>
+  <si>
+    <t>스마트패스 설명</t>
+  </si>
+  <si>
+    <t>스마트패스(안면인식 출국 시스템)는 여권과 탑승권 정보를 미리 등록해 두면, 안면 인식만으로 출국장 및 탑승구 게이트를 통과할 수 있는 서비스입니다. 줄을 서서 기다릴 필요 없이 신속하게 출국 절차를 밟을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>자동출입국심사 설명</t>
+  </si>
+  <si>
+    <t>자동출입국심사는 생체 정보(지문, 얼굴)를 활용하여 심사관 없이 자동 심사대를 통해 출입국 심사를 완료하는 시스템입니다. 미리 등록된 국민 및 외국인이 이용할 수 있으며, 빠르고 편리하게 출입국 심사를 마칠 수 있습니다.</t>
+  </si>
+  <si>
+    <t>기내 반입금지 물품 확인</t>
+  </si>
+  <si>
+    <t>항공기 기내 반입 금지 물품에 대한 상세 정보는 한국교통안전공단 항공안전본부 웹사이트 또는 이용 항공사의 웹사이트에서 확인할 수 있습니다. 출국 전 반드시 확인하여 불이익을 받지 않도록 주의해야 합니다.</t>
+  </si>
+  <si>
+    <t>출국 시 비행기표 외 필요 서류</t>
+  </si>
+  <si>
+    <t>출국 시 비행기표(탑승권) 외에 유효한 여권이 필수이며, 방문 국가에 따라 비자(사증), 전자여행허가(예: ESTA, eTA) 승인 서류, 국제예방접종증명서, 경우에 따라서는 해외여행허가서(병역의무자) 등이 추가로 필요할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>기내용 캐리어 사이즈 제한</t>
+  </si>
+  <si>
+    <t>기내 반입이 허용되는 캐리어(휴대 수하물)는 일반적으로 3면의 합이 115cm (가로 55cm, 세로 40cm, 높이 20cm) 이내이며, 무게는 10~12kg으로 제한됩니다. 항공사별로 규정이 다를 수 있으니, 탑승하시는 항공사의 정확한 기준을 사전에 확인해야 합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>반려동물 동반 탑승 규정</t>
+  </si>
+  <si>
+    <t>반려동물 동반 탑승 규정은 항공사 및 방문 국가에 따라 매우 다양합니다. 일반적으로 기내 반입이 가능한 소형 반려동물(강아지, 고양이, 새 등)은 운송용 케이지를 포함한 무게 제한(보통 5~7kg)이 있으며, 별도의 요금이 부과됩니다. 사전 예약 및 검역 서류가 필수이며, 일부 대형견은 위탁 수하물로만 운송 가능합니다. 반드시 이용 항공사에 사전 문의하여 상세 규정을 확인해야 합니다.</t>
+  </si>
+  <si>
+    <t>기내 반입 가능한 가방 개수</t>
+  </si>
+  <si>
+    <t>일반적으로 승객 1인당 기내용 캐리어 1개와 개인 소지품 1개 (예: 노트북 가방, 핸드백, 백팩 등)를 기내에 반입할 수 있습니다. 각 항공사의 세부 규정 및 좌석 등급에 따라 허용되는 개수와 무게가 다를 수 있으니, 반드시 항공사 웹사이트에서 확인하시기 바랍니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위탁 수하물의 허용 크기</t>
+  </si>
+  <si>
+    <t>위탁 수하물의 허용 크기는 항공사 및 노선별로 상이합니다. 일반적으로 3면(가로+세로+높이)의 합이 158cm 이내이며, 무게는 이코노미 클래스 기준 23kg으로 제한됩니다. 초과 시 추가 요금이 발생할 수 있으므로, 항공권 구매 시 또는 항공사 웹사이트에서 정확한 규정을 확인해야 합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 항공사별 수하물 규정 차이 확인</t>
+  </si>
+  <si>
+    <t>각 항공사별 수하물 규정은 항공사의 공식 웹사이트 또는 항공권 구매 시 받은 여정 안내서에서 가장 정확하게 확인할 수 있습니다. 항공권 종류(클래스), 노선, 회원 등급에 따라 무료 수하물 허용량, 추가 요금 등이 달라질 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위탁 수하물 접수 마감 시간</t>
+  </si>
+  <si>
+    <t>위탁 수하물 접수는 항공편 출발 시간 기준으로 일반적으로 국제선은 1시간 전, 국내선은 40분 전에 마감됩니다. 단, 항공사나 혼잡도에 따라 더 일찍 마감될 수 있으니, 충분한 시간을 가지고 공항에 도착하여 수속을 진행하는 것이 좋습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수하물 포장 서비스 개요</t>
+  </si>
+  <si>
+    <t>인천공항에서는 수하물을 안전하게 보호하고 파손, 오염, 분실을 방지하기 위한 랩핑 서비스를 제공합니다. 이 서비스는 특히 비 오는 날이나 밀폐가 필요한 경우 유용합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수하물 랩핑 서비스 위치</t>
+  </si>
+  <si>
+    <t>랩핑 서비스는 한진택배에서 제공하며, 제1여객터미널 M카운터 (제주항공 카운터 옆) 및 6번 출국장 옆, 그리고 제2여객터미널 3층 H카운터에서 이용할 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수하물 랩핑 서비스 비용</t>
+  </si>
+  <si>
+    <t>랩핑 서비스 비용은 수하물 크기에 따라 다르며, 일반적으로 작은 캐리어는 약 12,000원, 큰 캐리어는 약 15,000원입니다 (변동 가능).</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수하물 랩핑 서비스 장점</t>
+  </si>
+  <si>
+    <t>랩핑은 수하물 파손 및 오염 방지, 내용물 분실 방지, 비 오는 날 방수 효과, 밀폐 포장으로 위생적인 사용 등 다양한 장점이 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수하물 랩핑 서비스 주의사항 및 단점</t>
+  </si>
+  <si>
+    <t>랩핑 전 짐 정리를 완료해야 하며, 랩핑 후에는 내용물 확인이 어렵습니다. 일회용 비닐 사용으로 인한 환경 문제 우려가 있으며, 수하물 검사 과정에서 필요 시 랩핑 해체 후 재포장해야 할 수 있습니다. 랩핑된 수하물은 내용물을 꺼낼 수 없으므로, 랩핑 전에 필요한 물건을 미리 챙겨야 합니다.</t>
+  </si>
+  <si>
+    <t>수하물 랩핑 서비스 이용 방법</t>
+  </si>
+  <si>
+    <t>랩핑 기계에 캐리어를 올려놓고 버튼을 누르면 자동으로 랩핑되며, 랩핑 후에는 손잡이 부분을 칼로 뜯어 사용합니다. 자세한 위치 및 정보는 인천공항 안내데스크에서 문의할 수 있습니다.</t>
   </si>
 </sst>
 </file>
@@ -1340,10 +1646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:F185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="E120" sqref="E120"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1735,102 +2041,94 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>209</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>294</v>
       </c>
       <c r="E20" t="s">
-        <v>208</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>209</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>296</v>
       </c>
       <c r="E21" t="s">
-        <v>207</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="68" x14ac:dyDescent="0.45">
+        <v>297</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>209</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>211</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="E22" t="s">
+        <v>299</v>
+      </c>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>6</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>308</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>209</v>
+        <v>6</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -1841,36 +2139,36 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>207</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" ht="68" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>209</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" t="s">
-        <v>32</v>
+        <v>211</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -1878,39 +2176,39 @@
         <v>6</v>
       </c>
       <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
         <v>4</v>
       </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>209</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>215</v>
       </c>
       <c r="E28" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
@@ -1918,19 +2216,19 @@
         <v>6</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
@@ -1938,119 +2236,109 @@
         <v>6</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>284</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>6</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>6</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>201</v>
+        <v>288</v>
       </c>
       <c r="E32" t="s">
-        <v>202</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>6</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>44</v>
+        <v>291</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>6</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>204</v>
+        <v>292</v>
       </c>
       <c r="E34" t="s">
-        <v>203</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>6</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E35" t="s">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
@@ -2058,19 +2346,19 @@
         <v>6</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
@@ -2078,19 +2366,19 @@
         <v>6</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37">
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>50</v>
+        <v>205</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
@@ -2098,19 +2386,19 @@
         <v>6</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C38">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>200</v>
+        <v>38</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
@@ -2118,19 +2406,19 @@
         <v>6</v>
       </c>
       <c r="B39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39">
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E39" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
@@ -2138,19 +2426,19 @@
         <v>6</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40">
         <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E40" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
@@ -2158,39 +2446,39 @@
         <v>6</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>56</v>
+        <v>201</v>
       </c>
       <c r="E41" t="s">
-        <v>57</v>
+        <v>202</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>209</v>
+        <v>6</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>217</v>
+        <v>44</v>
       </c>
       <c r="E42" t="s">
-        <v>218</v>
+        <v>45</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
@@ -2198,319 +2486,307 @@
         <v>6</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>59</v>
+        <v>204</v>
       </c>
       <c r="E43" t="s">
-        <v>60</v>
+        <v>203</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E45" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C46">
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="E46" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C47">
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>71</v>
+        <v>200</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C48">
         <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C49">
         <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E49" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C50">
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>310</v>
       </c>
       <c r="E50" t="s">
-        <v>77</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>78</v>
+        <v>312</v>
       </c>
       <c r="E51" t="s">
-        <v>79</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>80</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>81</v>
+        <v>300</v>
       </c>
       <c r="E52" t="s">
-        <v>82</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>83</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>84</v>
+        <v>302</v>
       </c>
       <c r="E53" t="s">
-        <v>85</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>86</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>304</v>
       </c>
       <c r="E54" t="s">
-        <v>88</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>86</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C55">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>89</v>
+        <v>306</v>
       </c>
       <c r="E55" t="s">
-        <v>90</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>91</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C56">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="E56" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>209</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C57">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>94</v>
+        <v>217</v>
       </c>
       <c r="E57" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C58">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="E58" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
@@ -2518,19 +2794,19 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="E59" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
@@ -2538,19 +2814,19 @@
         <v>61</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="E60" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
@@ -2558,19 +2834,19 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="E61" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
@@ -2578,19 +2854,19 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C62">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="E62" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
@@ -2598,19 +2874,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C63">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D63" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="E63" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
@@ -2618,19 +2894,19 @@
         <v>61</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="E64" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
@@ -2638,19 +2914,19 @@
         <v>61</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="E65" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
@@ -2658,179 +2934,163 @@
         <v>61</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>114</v>
+        <v>314</v>
       </c>
       <c r="E66" t="s">
-        <v>115</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>111</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>61</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C67">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>116</v>
+        <v>316</v>
       </c>
       <c r="E67" t="s">
-        <v>117</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>111</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>61</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C68">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>118</v>
+        <v>318</v>
       </c>
       <c r="E68" t="s">
-        <v>119</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>111</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>61</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C69">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>120</v>
+        <v>320</v>
       </c>
       <c r="E69" t="s">
-        <v>121</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>122</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>61</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C70">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D70" t="s">
-        <v>123</v>
+        <v>322</v>
       </c>
       <c r="E70" t="s">
-        <v>124</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>122</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>61</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C71">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D71" t="s">
-        <v>125</v>
+        <v>324</v>
       </c>
       <c r="E71" t="s">
-        <v>126</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>127</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>61</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C72">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>128</v>
+        <v>326</v>
       </c>
       <c r="E72" t="s">
-        <v>129</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>127</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>61</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C73">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D73" t="s">
-        <v>130</v>
+        <v>328</v>
       </c>
       <c r="E73" t="s">
-        <v>131</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>132</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>61</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C74">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="E74" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
@@ -2838,19 +3098,19 @@
         <v>61</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C75">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="E75" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
@@ -2858,19 +3118,19 @@
         <v>61</v>
       </c>
       <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
         <v>3</v>
       </c>
-      <c r="C76">
-        <v>13</v>
-      </c>
       <c r="D76" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="E76" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
@@ -2878,19 +3138,19 @@
         <v>61</v>
       </c>
       <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77">
         <v>4</v>
       </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
       <c r="D77" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="E77" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
@@ -2898,19 +3158,19 @@
         <v>61</v>
       </c>
       <c r="B78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="E78" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
@@ -2918,19 +3178,19 @@
         <v>61</v>
       </c>
       <c r="B79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D79" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="E79" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
@@ -2938,19 +3198,19 @@
         <v>61</v>
       </c>
       <c r="B80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C80">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="E80" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
@@ -2958,19 +3218,19 @@
         <v>61</v>
       </c>
       <c r="B81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C81">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="E81" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
@@ -2978,19 +3238,19 @@
         <v>61</v>
       </c>
       <c r="B82">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="E82" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>154</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
@@ -2998,19 +3258,19 @@
         <v>61</v>
       </c>
       <c r="B83">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="E83" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>154</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
@@ -3018,19 +3278,19 @@
         <v>61</v>
       </c>
       <c r="B84">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C84">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D84" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="E84" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>154</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
@@ -3038,19 +3298,19 @@
         <v>61</v>
       </c>
       <c r="B85">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D85" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="E85" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
@@ -3058,19 +3318,19 @@
         <v>61</v>
       </c>
       <c r="B86">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C86">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="E86" t="s">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
@@ -3078,728 +3338,1653 @@
         <v>61</v>
       </c>
       <c r="B87">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C87">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>164</v>
+        <v>330</v>
       </c>
       <c r="E87" t="s">
-        <v>165</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>163</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>61</v>
       </c>
       <c r="B88">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C88">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>166</v>
+        <v>332</v>
       </c>
       <c r="E88" t="s">
-        <v>167</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>163</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>61</v>
       </c>
       <c r="B89">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C89">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D89" t="s">
-        <v>168</v>
+        <v>334</v>
       </c>
       <c r="E89" t="s">
-        <v>169</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>163</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>61</v>
       </c>
       <c r="B90">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C90">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" t="s">
-        <v>170</v>
+        <v>336</v>
       </c>
       <c r="E90" t="s">
-        <v>171</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>172</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="F90" s="2"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>61</v>
       </c>
       <c r="B91">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C91">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D91" t="s">
-        <v>173</v>
+        <v>338</v>
       </c>
       <c r="E91" t="s">
-        <v>174</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>172</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>61</v>
       </c>
       <c r="B92">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D92" t="s">
-        <v>175</v>
+        <v>340</v>
       </c>
       <c r="E92" t="s">
-        <v>176</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>177</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="F92" s="2"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>61</v>
       </c>
       <c r="B93">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C93">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D93" t="s">
-        <v>178</v>
+        <v>342</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>177</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>61</v>
       </c>
       <c r="B94">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C94">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D94" t="s">
-        <v>180</v>
+        <v>358</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>177</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>61</v>
       </c>
       <c r="B95">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C95">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D95" t="s">
-        <v>182</v>
+        <v>360</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>177</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="F95" s="2"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>61</v>
       </c>
       <c r="B96">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C96">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D96" t="s">
-        <v>184</v>
+        <v>362</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>186</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>61</v>
       </c>
       <c r="B97">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C97">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D97" t="s">
-        <v>187</v>
+        <v>364</v>
       </c>
       <c r="E97" t="s">
-        <v>188</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>186</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="F97" s="2"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>61</v>
       </c>
       <c r="B98">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D98" t="s">
-        <v>189</v>
+        <v>366</v>
       </c>
       <c r="E98" t="s">
-        <v>190</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>143</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>61</v>
       </c>
       <c r="B99">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D99" t="s">
-        <v>191</v>
+        <v>368</v>
       </c>
       <c r="E99" t="s">
-        <v>192</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>143</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="F99" s="2"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>61</v>
       </c>
       <c r="B100">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C100">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D100" t="s">
-        <v>193</v>
+        <v>370</v>
       </c>
       <c r="E100" t="s">
-        <v>194</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>143</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="F100" s="2"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>61</v>
       </c>
       <c r="B101">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D101" t="s">
-        <v>195</v>
+        <v>372</v>
       </c>
       <c r="E101" t="s">
-        <v>196</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>143</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>61</v>
       </c>
       <c r="B102">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D102" t="s">
-        <v>197</v>
+        <v>374</v>
       </c>
       <c r="E102" t="s">
-        <v>198</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>143</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="F102" s="2"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>199</v>
+        <v>61</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D103" t="s">
-        <v>243</v>
+        <v>376</v>
       </c>
       <c r="E103" t="s">
-        <v>245</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>244</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>199</v>
+        <v>61</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D104" t="s">
-        <v>246</v>
+        <v>378</v>
       </c>
       <c r="E104" t="s">
-        <v>247</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>244</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="F104" s="2"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>199</v>
+        <v>61</v>
       </c>
       <c r="B105">
         <v>2</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D105" t="s">
-        <v>248</v>
+        <v>380</v>
       </c>
       <c r="E105" t="s">
-        <v>249</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>244</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>199</v>
+        <v>61</v>
       </c>
       <c r="B106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>250</v>
+        <v>109</v>
       </c>
       <c r="E106" t="s">
-        <v>251</v>
+        <v>110</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>244</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>199</v>
+        <v>61</v>
       </c>
       <c r="B107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>252</v>
+        <v>112</v>
       </c>
       <c r="E107" t="s">
-        <v>253</v>
+        <v>113</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>244</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>199</v>
+        <v>61</v>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C108">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D108" t="s">
-        <v>254</v>
+        <v>114</v>
       </c>
       <c r="E108" t="s">
-        <v>255</v>
+        <v>115</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>244</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>199</v>
+        <v>61</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C109">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D109" t="s">
-        <v>256</v>
+        <v>116</v>
       </c>
       <c r="E109" t="s">
-        <v>257</v>
+        <v>117</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>244</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>199</v>
+        <v>61</v>
       </c>
       <c r="B110">
         <v>3</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D110" t="s">
-        <v>258</v>
+        <v>118</v>
       </c>
       <c r="E110" t="s">
-        <v>259</v>
+        <v>119</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>262</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>199</v>
+        <v>61</v>
       </c>
       <c r="B111">
         <v>3</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D111" t="s">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="E111" t="s">
-        <v>261</v>
+        <v>121</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>262</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>199</v>
+        <v>61</v>
       </c>
       <c r="B112">
         <v>3</v>
       </c>
       <c r="C112">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D112" t="s">
-        <v>263</v>
+        <v>123</v>
       </c>
       <c r="E112" t="s">
-        <v>264</v>
+        <v>124</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>262</v>
+        <v>122</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>199</v>
+        <v>61</v>
       </c>
       <c r="B113">
         <v>3</v>
       </c>
       <c r="C113">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D113" t="s">
-        <v>265</v>
+        <v>125</v>
       </c>
       <c r="E113" t="s">
-        <v>266</v>
+        <v>126</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>262</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>199</v>
+        <v>61</v>
       </c>
       <c r="B114">
         <v>3</v>
       </c>
       <c r="C114">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>267</v>
+        <v>128</v>
       </c>
       <c r="E114" t="s">
-        <v>268</v>
+        <v>129</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>262</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>199</v>
+        <v>61</v>
       </c>
       <c r="B115">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>269</v>
+        <v>130</v>
       </c>
       <c r="E115" t="s">
-        <v>270</v>
+        <v>131</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>244</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>199</v>
+        <v>61</v>
       </c>
       <c r="B116">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D116" t="s">
-        <v>271</v>
+        <v>133</v>
       </c>
       <c r="E116" t="s">
-        <v>272</v>
+        <v>134</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>244</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>199</v>
+        <v>61</v>
       </c>
       <c r="B117">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C117">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D117" t="s">
-        <v>273</v>
+        <v>136</v>
       </c>
       <c r="E117" t="s">
-        <v>274</v>
+        <v>137</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>275</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>276</v>
+        <v>61</v>
       </c>
       <c r="B118">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D118" t="s">
-        <v>277</v>
+        <v>139</v>
       </c>
       <c r="E118" t="s">
-        <v>278</v>
+        <v>140</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>279</v>
+        <v>111</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>276</v>
+        <v>61</v>
       </c>
       <c r="B119">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D119" t="s">
-        <v>280</v>
+        <v>344</v>
       </c>
       <c r="E119" t="s">
-        <v>281</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>279</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="F119" s="2"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
+        <v>61</v>
+      </c>
+      <c r="B120">
+        <v>3</v>
+      </c>
+      <c r="C120">
+        <v>15</v>
+      </c>
+      <c r="D120" t="s">
+        <v>346</v>
+      </c>
+      <c r="E120" t="s">
+        <v>347</v>
+      </c>
+      <c r="F120" s="2"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>61</v>
+      </c>
+      <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121">
+        <v>16</v>
+      </c>
+      <c r="D121" t="s">
+        <v>348</v>
+      </c>
+      <c r="E121" t="s">
+        <v>349</v>
+      </c>
+      <c r="F121" s="2"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>61</v>
+      </c>
+      <c r="B122">
+        <v>4</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122" t="s">
+        <v>141</v>
+      </c>
+      <c r="E122" t="s">
+        <v>142</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>61</v>
+      </c>
+      <c r="B123">
+        <v>4</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+      <c r="D123" t="s">
+        <v>144</v>
+      </c>
+      <c r="E123" t="s">
+        <v>145</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>61</v>
+      </c>
+      <c r="B124">
+        <v>4</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+      <c r="D124" t="s">
+        <v>146</v>
+      </c>
+      <c r="E124" t="s">
+        <v>147</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>61</v>
+      </c>
+      <c r="B125">
+        <v>4</v>
+      </c>
+      <c r="C125">
+        <v>4</v>
+      </c>
+      <c r="D125" t="s">
+        <v>148</v>
+      </c>
+      <c r="E125" t="s">
+        <v>149</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
+        <v>61</v>
+      </c>
+      <c r="B126">
+        <v>4</v>
+      </c>
+      <c r="C126">
+        <v>5</v>
+      </c>
+      <c r="D126" t="s">
+        <v>150</v>
+      </c>
+      <c r="E126" t="s">
+        <v>151</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
+        <v>61</v>
+      </c>
+      <c r="B127">
+        <v>5</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127" t="s">
+        <v>152</v>
+      </c>
+      <c r="E127" t="s">
+        <v>153</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
+        <v>61</v>
+      </c>
+      <c r="B128">
+        <v>5</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+      <c r="D128" t="s">
+        <v>155</v>
+      </c>
+      <c r="E128" t="s">
+        <v>156</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
+        <v>61</v>
+      </c>
+      <c r="B129">
+        <v>5</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+      <c r="D129" t="s">
+        <v>157</v>
+      </c>
+      <c r="E129" t="s">
+        <v>158</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
+        <v>61</v>
+      </c>
+      <c r="B130">
+        <v>5</v>
+      </c>
+      <c r="C130">
+        <v>4</v>
+      </c>
+      <c r="D130" t="s">
+        <v>159</v>
+      </c>
+      <c r="E130" t="s">
+        <v>160</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
+        <v>61</v>
+      </c>
+      <c r="B131">
+        <v>5</v>
+      </c>
+      <c r="C131">
+        <v>5</v>
+      </c>
+      <c r="D131" t="s">
+        <v>161</v>
+      </c>
+      <c r="E131" t="s">
+        <v>162</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
+        <v>61</v>
+      </c>
+      <c r="B132">
+        <v>5</v>
+      </c>
+      <c r="C132">
+        <v>6</v>
+      </c>
+      <c r="D132" t="s">
+        <v>164</v>
+      </c>
+      <c r="E132" t="s">
+        <v>165</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
+        <v>61</v>
+      </c>
+      <c r="B133">
+        <v>5</v>
+      </c>
+      <c r="C133">
+        <v>7</v>
+      </c>
+      <c r="D133" t="s">
+        <v>166</v>
+      </c>
+      <c r="E133" t="s">
+        <v>167</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A134" t="s">
+        <v>61</v>
+      </c>
+      <c r="B134">
+        <v>5</v>
+      </c>
+      <c r="C134">
+        <v>8</v>
+      </c>
+      <c r="D134" t="s">
+        <v>168</v>
+      </c>
+      <c r="E134" t="s">
+        <v>169</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A135" t="s">
+        <v>61</v>
+      </c>
+      <c r="B135">
+        <v>5</v>
+      </c>
+      <c r="C135">
+        <v>9</v>
+      </c>
+      <c r="D135" t="s">
+        <v>170</v>
+      </c>
+      <c r="E135" t="s">
+        <v>171</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A136" t="s">
+        <v>61</v>
+      </c>
+      <c r="B136">
+        <v>5</v>
+      </c>
+      <c r="C136">
+        <v>10</v>
+      </c>
+      <c r="D136" t="s">
+        <v>173</v>
+      </c>
+      <c r="E136" t="s">
+        <v>174</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A137" t="s">
+        <v>61</v>
+      </c>
+      <c r="B137">
+        <v>5</v>
+      </c>
+      <c r="C137">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s">
+        <v>350</v>
+      </c>
+      <c r="E137" t="s">
+        <v>351</v>
+      </c>
+      <c r="F137" s="2"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A138" t="s">
+        <v>61</v>
+      </c>
+      <c r="B138">
+        <v>5</v>
+      </c>
+      <c r="C138">
+        <v>12</v>
+      </c>
+      <c r="D138" t="s">
+        <v>352</v>
+      </c>
+      <c r="E138" t="s">
+        <v>353</v>
+      </c>
+      <c r="F138" s="2"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A139" t="s">
+        <v>61</v>
+      </c>
+      <c r="B139">
+        <v>5</v>
+      </c>
+      <c r="C139">
+        <v>13</v>
+      </c>
+      <c r="D139" t="s">
+        <v>354</v>
+      </c>
+      <c r="E139" t="s">
+        <v>355</v>
+      </c>
+      <c r="F139" s="2"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A140" t="s">
+        <v>61</v>
+      </c>
+      <c r="B140">
+        <v>6</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140" t="s">
+        <v>175</v>
+      </c>
+      <c r="E140" t="s">
+        <v>176</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A141" t="s">
+        <v>61</v>
+      </c>
+      <c r="B141">
+        <v>6</v>
+      </c>
+      <c r="C141">
+        <v>2</v>
+      </c>
+      <c r="D141" t="s">
+        <v>178</v>
+      </c>
+      <c r="E141" t="s">
+        <v>179</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A142" t="s">
+        <v>61</v>
+      </c>
+      <c r="B142">
+        <v>6</v>
+      </c>
+      <c r="C142">
+        <v>3</v>
+      </c>
+      <c r="D142" t="s">
+        <v>180</v>
+      </c>
+      <c r="E142" t="s">
+        <v>181</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A143" t="s">
+        <v>61</v>
+      </c>
+      <c r="B143">
+        <v>6</v>
+      </c>
+      <c r="C143">
+        <v>4</v>
+      </c>
+      <c r="D143" t="s">
+        <v>182</v>
+      </c>
+      <c r="E143" t="s">
+        <v>183</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A144" t="s">
+        <v>61</v>
+      </c>
+      <c r="B144">
+        <v>6</v>
+      </c>
+      <c r="C144">
+        <v>5</v>
+      </c>
+      <c r="D144" t="s">
+        <v>184</v>
+      </c>
+      <c r="E144" t="s">
+        <v>185</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A145" t="s">
+        <v>61</v>
+      </c>
+      <c r="B145">
+        <v>6</v>
+      </c>
+      <c r="C145">
+        <v>6</v>
+      </c>
+      <c r="D145" t="s">
+        <v>187</v>
+      </c>
+      <c r="E145" t="s">
+        <v>188</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
+        <v>61</v>
+      </c>
+      <c r="B146">
+        <v>6</v>
+      </c>
+      <c r="C146">
+        <v>7</v>
+      </c>
+      <c r="D146" t="s">
+        <v>356</v>
+      </c>
+      <c r="E146" t="s">
+        <v>357</v>
+      </c>
+      <c r="F146" s="2"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
+        <v>61</v>
+      </c>
+      <c r="B147">
+        <v>7</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147" t="s">
+        <v>189</v>
+      </c>
+      <c r="E147" t="s">
+        <v>190</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A148" t="s">
+        <v>61</v>
+      </c>
+      <c r="B148">
+        <v>7</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+      <c r="D148" t="s">
+        <v>191</v>
+      </c>
+      <c r="E148" t="s">
+        <v>192</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A149" t="s">
+        <v>61</v>
+      </c>
+      <c r="B149">
+        <v>7</v>
+      </c>
+      <c r="C149">
+        <v>3</v>
+      </c>
+      <c r="D149" t="s">
+        <v>193</v>
+      </c>
+      <c r="E149" t="s">
+        <v>194</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A150" t="s">
+        <v>61</v>
+      </c>
+      <c r="B150">
+        <v>7</v>
+      </c>
+      <c r="C150">
+        <v>4</v>
+      </c>
+      <c r="D150" t="s">
+        <v>195</v>
+      </c>
+      <c r="E150" t="s">
+        <v>196</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A151" t="s">
+        <v>199</v>
+      </c>
+      <c r="B151">
+        <v>8</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151" t="s">
+        <v>197</v>
+      </c>
+      <c r="E151" t="s">
+        <v>198</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A152" t="s">
+        <v>199</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152" t="s">
+        <v>243</v>
+      </c>
+      <c r="E152" t="s">
+        <v>245</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A153" t="s">
+        <v>199</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+      <c r="D153" t="s">
+        <v>246</v>
+      </c>
+      <c r="E153" t="s">
+        <v>247</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A154" t="s">
+        <v>199</v>
+      </c>
+      <c r="B154">
+        <v>2</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154" t="s">
+        <v>248</v>
+      </c>
+      <c r="E154" t="s">
+        <v>249</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A155" t="s">
+        <v>199</v>
+      </c>
+      <c r="B155">
+        <v>2</v>
+      </c>
+      <c r="C155">
+        <v>2</v>
+      </c>
+      <c r="D155" t="s">
+        <v>250</v>
+      </c>
+      <c r="E155" t="s">
+        <v>251</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A156" t="s">
+        <v>199</v>
+      </c>
+      <c r="B156">
+        <v>2</v>
+      </c>
+      <c r="C156">
+        <v>3</v>
+      </c>
+      <c r="D156" t="s">
+        <v>252</v>
+      </c>
+      <c r="E156" t="s">
+        <v>253</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
+        <v>199</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157">
+        <v>4</v>
+      </c>
+      <c r="D157" t="s">
+        <v>254</v>
+      </c>
+      <c r="E157" t="s">
+        <v>255</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A158" t="s">
+        <v>199</v>
+      </c>
+      <c r="B158">
+        <v>2</v>
+      </c>
+      <c r="C158">
+        <v>5</v>
+      </c>
+      <c r="D158" t="s">
+        <v>256</v>
+      </c>
+      <c r="E158" t="s">
+        <v>257</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A159" t="s">
+        <v>199</v>
+      </c>
+      <c r="B159">
+        <v>3</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159" t="s">
+        <v>258</v>
+      </c>
+      <c r="E159" t="s">
+        <v>259</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A160" t="s">
+        <v>199</v>
+      </c>
+      <c r="B160">
+        <v>3</v>
+      </c>
+      <c r="C160">
+        <v>2</v>
+      </c>
+      <c r="D160" t="s">
+        <v>260</v>
+      </c>
+      <c r="E160" t="s">
+        <v>261</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
+        <v>199</v>
+      </c>
+      <c r="B161">
+        <v>3</v>
+      </c>
+      <c r="C161">
+        <v>3</v>
+      </c>
+      <c r="D161" t="s">
+        <v>263</v>
+      </c>
+      <c r="E161" t="s">
+        <v>264</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A162" t="s">
+        <v>199</v>
+      </c>
+      <c r="B162">
+        <v>3</v>
+      </c>
+      <c r="C162">
+        <v>4</v>
+      </c>
+      <c r="D162" t="s">
+        <v>265</v>
+      </c>
+      <c r="E162" t="s">
+        <v>266</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A163" t="s">
+        <v>199</v>
+      </c>
+      <c r="B163">
+        <v>3</v>
+      </c>
+      <c r="C163">
+        <v>5</v>
+      </c>
+      <c r="D163" t="s">
+        <v>267</v>
+      </c>
+      <c r="E163" t="s">
+        <v>268</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A164" t="s">
+        <v>199</v>
+      </c>
+      <c r="B164">
+        <v>4</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164" t="s">
+        <v>269</v>
+      </c>
+      <c r="E164" t="s">
+        <v>270</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A165" t="s">
+        <v>199</v>
+      </c>
+      <c r="B165">
+        <v>4</v>
+      </c>
+      <c r="C165">
+        <v>2</v>
+      </c>
+      <c r="D165" t="s">
+        <v>271</v>
+      </c>
+      <c r="E165" t="s">
+        <v>272</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A166" t="s">
         <v>276</v>
       </c>
-      <c r="B120">
+      <c r="B166">
+        <v>4</v>
+      </c>
+      <c r="C166">
+        <v>3</v>
+      </c>
+      <c r="D166" t="s">
+        <v>273</v>
+      </c>
+      <c r="E166" t="s">
+        <v>274</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A167" t="s">
+        <v>276</v>
+      </c>
+      <c r="B167">
         <v>5</v>
       </c>
-      <c r="C120">
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167" t="s">
+        <v>277</v>
+      </c>
+      <c r="E167" t="s">
+        <v>278</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A168" t="s">
+        <v>276</v>
+      </c>
+      <c r="B168">
+        <v>5</v>
+      </c>
+      <c r="C168">
+        <v>2</v>
+      </c>
+      <c r="D168" t="s">
+        <v>280</v>
+      </c>
+      <c r="E168" t="s">
+        <v>281</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B169">
+        <v>5</v>
+      </c>
+      <c r="C169">
         <v>3</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D169" t="s">
         <v>282</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E169" t="s">
         <v>283</v>
       </c>
-      <c r="F120" s="2" t="s">
+      <c r="F169" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F121" s="2"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F122" s="2"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F123" s="2"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F124" s="2"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F125" s="2"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F126" s="2"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F127" s="2"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F128" s="2"/>
-    </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F129" s="2"/>
-    </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F130" s="2"/>
-    </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F131" s="2"/>
-    </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F132" s="2"/>
-    </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F133" s="2"/>
-    </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F134" s="2"/>
-    </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F135" s="2"/>
-    </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.45">
-      <c r="F136" s="2"/>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F170" s="2"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F171" s="2"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F172" s="2"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F173" s="2"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F174" s="2"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F175" s="2"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F176" s="2"/>
+    </row>
+    <row r="177" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F177" s="2"/>
+    </row>
+    <row r="178" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F178" s="2"/>
+    </row>
+    <row r="179" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F179" s="2"/>
+    </row>
+    <row r="180" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F180" s="2"/>
+    </row>
+    <row r="181" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F181" s="2"/>
+    </row>
+    <row r="182" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F182" s="2"/>
+    </row>
+    <row r="183" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F183" s="2"/>
+    </row>
+    <row r="184" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F184" s="2"/>
+    </row>
+    <row r="185" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F185" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3807,68 +4992,68 @@
     <hyperlink ref="F2" r:id="rId1" xr:uid="{2332482D-51CE-4941-B157-99BB1E7C6319}"/>
     <hyperlink ref="F5" r:id="rId2" xr:uid="{38D5070F-DF08-4767-9DC9-E4522AFA3EB8}"/>
     <hyperlink ref="F8" r:id="rId3" xr:uid="{C483E8E6-4562-4D34-A094-88C482315ACE}"/>
-    <hyperlink ref="F35" r:id="rId4" xr:uid="{C397A630-6350-4A65-856F-18638E179C97}"/>
-    <hyperlink ref="F23" r:id="rId5" xr:uid="{E2211222-77BB-4059-93D3-40317783DB74}"/>
-    <hyperlink ref="F20" r:id="rId6" xr:uid="{7ABC40DD-19D4-497F-B9B5-BD3CC8E9F3DF}"/>
-    <hyperlink ref="F25" r:id="rId7" xr:uid="{FADB019C-658C-490E-B136-1EF35FB56E7F}"/>
-    <hyperlink ref="F21" r:id="rId8" xr:uid="{9698C8A1-A25A-419D-8F2D-D1587AB7AE59}"/>
-    <hyperlink ref="F26" r:id="rId9" xr:uid="{5A2CC414-DC17-4B44-8862-C970601F36CC}"/>
-    <hyperlink ref="F30" r:id="rId10" xr:uid="{1581B7B2-8152-407D-9481-F8B10B7287D8}"/>
-    <hyperlink ref="F27" r:id="rId11" xr:uid="{FCA868C3-B6F5-41E6-AD4B-F31AF060E563}"/>
-    <hyperlink ref="F28" r:id="rId12" xr:uid="{6E2D6B50-0FE9-438B-AF07-8D82EC1A8BE3}"/>
-    <hyperlink ref="F29" r:id="rId13" xr:uid="{2715D6A8-A281-44B8-9E23-89602017F39E}"/>
-    <hyperlink ref="F33" r:id="rId14" xr:uid="{F5855F44-4CF3-4BE1-8555-D9DCFE12C827}"/>
+    <hyperlink ref="F44" r:id="rId4" xr:uid="{C397A630-6350-4A65-856F-18638E179C97}"/>
+    <hyperlink ref="F27" r:id="rId5" xr:uid="{E2211222-77BB-4059-93D3-40317783DB74}"/>
+    <hyperlink ref="F24" r:id="rId6" xr:uid="{7ABC40DD-19D4-497F-B9B5-BD3CC8E9F3DF}"/>
+    <hyperlink ref="F29" r:id="rId7" xr:uid="{FADB019C-658C-490E-B136-1EF35FB56E7F}"/>
+    <hyperlink ref="F25" r:id="rId8" xr:uid="{9698C8A1-A25A-419D-8F2D-D1587AB7AE59}"/>
+    <hyperlink ref="F35" r:id="rId9" xr:uid="{5A2CC414-DC17-4B44-8862-C970601F36CC}"/>
+    <hyperlink ref="F39" r:id="rId10" xr:uid="{1581B7B2-8152-407D-9481-F8B10B7287D8}"/>
+    <hyperlink ref="F36" r:id="rId11" xr:uid="{FCA868C3-B6F5-41E6-AD4B-F31AF060E563}"/>
+    <hyperlink ref="F37" r:id="rId12" xr:uid="{6E2D6B50-0FE9-438B-AF07-8D82EC1A8BE3}"/>
+    <hyperlink ref="F38" r:id="rId13" xr:uid="{2715D6A8-A281-44B8-9E23-89602017F39E}"/>
+    <hyperlink ref="F42" r:id="rId14" xr:uid="{F5855F44-4CF3-4BE1-8555-D9DCFE12C827}"/>
     <hyperlink ref="F7" r:id="rId15" xr:uid="{7CEBE144-ECC2-4591-B740-062635B4A6C1}"/>
     <hyperlink ref="F3" r:id="rId16" xr:uid="{852A8BBE-FE0E-4B8C-BD6A-B9C04A4A1131}"/>
-    <hyperlink ref="F36:F40" r:id="rId17" display="https://www.airport.kr/ap_ko/918/subview.do" xr:uid="{9F87847D-44A8-4121-9C0B-65B68CE2139D}"/>
-    <hyperlink ref="F41" r:id="rId18" xr:uid="{DF76654E-1F85-414F-8509-8E91888564E4}"/>
-    <hyperlink ref="F43" r:id="rId19" xr:uid="{5A4CE2A9-3F4D-4F7E-BE4E-9029EC9AC304}"/>
-    <hyperlink ref="F44" r:id="rId20" xr:uid="{37FEFD7F-5FD4-495B-A0F5-F59E40A8F383}"/>
-    <hyperlink ref="F45" r:id="rId21" xr:uid="{05400C94-A690-474C-9B70-F6267DF83F4F}"/>
-    <hyperlink ref="F46" r:id="rId22" display="https://www.airport.kr/ap_ko/887/subview.do" xr:uid="{AFF7181A-2811-4BEF-BE13-AD1CE3B1DD54}"/>
-    <hyperlink ref="F47" r:id="rId23" xr:uid="{E68941D2-3819-460C-B130-AA44A185F5CE}"/>
-    <hyperlink ref="F48:F49" r:id="rId24" display="https://www.airport.kr/ap_ko/887/subview.do" xr:uid="{6FF8897A-3424-47B3-9919-EC60AFFF602B}"/>
-    <hyperlink ref="F50" r:id="rId25" xr:uid="{8FF65B4D-F128-4A56-B2A3-FC67DF7512CE}"/>
-    <hyperlink ref="F52" r:id="rId26" xr:uid="{05B08FBB-F342-459B-8333-2C4BD9882766}"/>
-    <hyperlink ref="F53" r:id="rId27" xr:uid="{F7F7B584-B550-4D39-ACAD-0AA0B96F6036}"/>
-    <hyperlink ref="F54" r:id="rId28" xr:uid="{54B8F45C-BC43-4F96-8FA3-6A9CDC45B032}"/>
-    <hyperlink ref="F51" r:id="rId29" xr:uid="{9BE6524E-C098-46B6-A3C7-C45429F22CD5}"/>
-    <hyperlink ref="F55" r:id="rId30" xr:uid="{47B6CFD5-C5E7-4237-A0D5-096FF466AD9E}"/>
-    <hyperlink ref="F56" r:id="rId31" xr:uid="{B7AD43EF-4A82-4ACC-9C81-C80F75B53B9F}"/>
-    <hyperlink ref="F57" r:id="rId32" xr:uid="{F5BB9495-A6FA-4FD5-8DF5-9B34EF82ABFE}"/>
-    <hyperlink ref="F58:F61" r:id="rId33" display="https://www.airport.kr/ap_ko/894/subview.do" xr:uid="{35C7C8E6-CD82-4794-B6C7-FD0A0B7F8702}"/>
-    <hyperlink ref="F62" r:id="rId34" xr:uid="{D630B915-13FA-40AB-A735-B83B5D5E6320}"/>
-    <hyperlink ref="F63" r:id="rId35" xr:uid="{1DAD07FC-4B51-401F-9C68-7B2CC66F9F70}"/>
-    <hyperlink ref="F64" r:id="rId36" xr:uid="{945C9F7F-8C81-411C-9C54-690A717DE873}"/>
-    <hyperlink ref="F65:F68" r:id="rId37" display="https://www.airport.kr/ap_ko/896/subview.do" xr:uid="{7BCE5AA8-F2D6-44DA-AC1C-1B0A6DFEE9DE}"/>
-    <hyperlink ref="F69" r:id="rId38" xr:uid="{10C0960C-336F-49BB-B02B-F4358738ABBE}"/>
-    <hyperlink ref="F70" r:id="rId39" xr:uid="{08101135-4711-4AFA-A534-C153069108AA}"/>
-    <hyperlink ref="F72" r:id="rId40" xr:uid="{355347D9-E8B7-4225-9CE5-693222809B74}"/>
-    <hyperlink ref="F71" r:id="rId41" xr:uid="{32EC838C-10AC-4389-9E67-77A25BB150EC}"/>
-    <hyperlink ref="F75" r:id="rId42" xr:uid="{7A564C3D-D749-42CC-8BB9-3A069B5B68A1}"/>
-    <hyperlink ref="F74" r:id="rId43" xr:uid="{A1F0B522-F435-4AA0-9343-E09B9CF935D2}"/>
-    <hyperlink ref="F73" r:id="rId44" xr:uid="{7FE7E1BB-4539-443F-B8FC-4CDB97725F51}"/>
-    <hyperlink ref="F76" r:id="rId45" xr:uid="{CE1CEE9E-58C8-4A63-B600-D50F593DD1FA}"/>
-    <hyperlink ref="F77" r:id="rId46" xr:uid="{D107E2F9-BD07-438D-A387-4F2F62B7EE77}"/>
-    <hyperlink ref="F78:F81" r:id="rId47" display="https://www.airport.kr/ap_ko/886/subview.do" xr:uid="{DBAB0139-1487-41EF-89C0-B7E1573E00E7}"/>
-    <hyperlink ref="F82" r:id="rId48" xr:uid="{3E368DDB-64E6-4DCC-B7CD-B2BAA326CE3B}"/>
-    <hyperlink ref="F83:F84" r:id="rId49" display="https://www.airport.kr/ap_ko/904/subview.do" xr:uid="{5C25360D-7FBB-461A-8BB9-40F8F3128B54}"/>
-    <hyperlink ref="F85" r:id="rId50" xr:uid="{DAD4CA2F-F660-4BED-8E81-566F97784A6B}"/>
-    <hyperlink ref="F86" r:id="rId51" xr:uid="{5CD8103E-DEF9-4A57-9F69-22E52C7995F0}"/>
-    <hyperlink ref="F90" r:id="rId52" xr:uid="{1D26F793-4996-4070-AE01-4922B63F9C38}"/>
-    <hyperlink ref="F91" r:id="rId53" xr:uid="{AAB44477-EE3C-470E-9FBB-2CF9B6645D7F}"/>
-    <hyperlink ref="F87:F89" r:id="rId54" display="https://www.airport.kr/ap_ko/906/subview.do" xr:uid="{58C9AEE0-E4FA-4A1F-8E34-3F2D7C092568}"/>
-    <hyperlink ref="F92" r:id="rId55" xr:uid="{74DCEE96-9FF2-4235-B354-1C923D91F5EA}"/>
-    <hyperlink ref="F93:F95" r:id="rId56" display="https://www.airport.kr/ap_ko/910/subview.do" xr:uid="{BB0E8239-E533-423D-9735-3C7DAB961B02}"/>
-    <hyperlink ref="F96" r:id="rId57" xr:uid="{03303C03-9A1F-4D57-A1BD-7D8635145879}"/>
-    <hyperlink ref="F97" r:id="rId58" xr:uid="{B1073DF2-46BA-4DE5-90DF-D1BB4651C06B}"/>
-    <hyperlink ref="F98" r:id="rId59" xr:uid="{65627D1A-DF2F-4640-9F1E-3774DB986B0A}"/>
-    <hyperlink ref="F99:F102" r:id="rId60" display="https://www.airport.kr/ap_ko/886/subview.do" xr:uid="{F9762C48-81B1-4D72-AC78-372E4DC6F472}"/>
-    <hyperlink ref="F34" r:id="rId61" xr:uid="{1093DBB0-6A0C-4481-BEDD-1F5F3BD9410D}"/>
-    <hyperlink ref="F22" r:id="rId62" xr:uid="{34F86ACD-2D57-4CA8-88F7-E3704DFBB6A6}"/>
+    <hyperlink ref="F45:F49" r:id="rId17" display="https://www.airport.kr/ap_ko/918/subview.do" xr:uid="{9F87847D-44A8-4121-9C0B-65B68CE2139D}"/>
+    <hyperlink ref="F56" r:id="rId18" xr:uid="{DF76654E-1F85-414F-8509-8E91888564E4}"/>
+    <hyperlink ref="F58" r:id="rId19" xr:uid="{5A4CE2A9-3F4D-4F7E-BE4E-9029EC9AC304}"/>
+    <hyperlink ref="F59" r:id="rId20" xr:uid="{37FEFD7F-5FD4-495B-A0F5-F59E40A8F383}"/>
+    <hyperlink ref="F60" r:id="rId21" xr:uid="{05400C94-A690-474C-9B70-F6267DF83F4F}"/>
+    <hyperlink ref="F61" r:id="rId22" display="https://www.airport.kr/ap_ko/887/subview.do" xr:uid="{AFF7181A-2811-4BEF-BE13-AD1CE3B1DD54}"/>
+    <hyperlink ref="F62" r:id="rId23" xr:uid="{E68941D2-3819-460C-B130-AA44A185F5CE}"/>
+    <hyperlink ref="F63:F64" r:id="rId24" display="https://www.airport.kr/ap_ko/887/subview.do" xr:uid="{6FF8897A-3424-47B3-9919-EC60AFFF602B}"/>
+    <hyperlink ref="F65" r:id="rId25" xr:uid="{8FF65B4D-F128-4A56-B2A3-FC67DF7512CE}"/>
+    <hyperlink ref="F75" r:id="rId26" xr:uid="{05B08FBB-F342-459B-8333-2C4BD9882766}"/>
+    <hyperlink ref="F76" r:id="rId27" xr:uid="{F7F7B584-B550-4D39-ACAD-0AA0B96F6036}"/>
+    <hyperlink ref="F77" r:id="rId28" xr:uid="{54B8F45C-BC43-4F96-8FA3-6A9CDC45B032}"/>
+    <hyperlink ref="F74" r:id="rId29" xr:uid="{9BE6524E-C098-46B6-A3C7-C45429F22CD5}"/>
+    <hyperlink ref="F78" r:id="rId30" xr:uid="{47B6CFD5-C5E7-4237-A0D5-096FF466AD9E}"/>
+    <hyperlink ref="F79" r:id="rId31" xr:uid="{B7AD43EF-4A82-4ACC-9C81-C80F75B53B9F}"/>
+    <hyperlink ref="F80" r:id="rId32" xr:uid="{F5BB9495-A6FA-4FD5-8DF5-9B34EF82ABFE}"/>
+    <hyperlink ref="F81:F84" r:id="rId33" display="https://www.airport.kr/ap_ko/894/subview.do" xr:uid="{35C7C8E6-CD82-4794-B6C7-FD0A0B7F8702}"/>
+    <hyperlink ref="F85" r:id="rId34" xr:uid="{D630B915-13FA-40AB-A735-B83B5D5E6320}"/>
+    <hyperlink ref="F86" r:id="rId35" xr:uid="{1DAD07FC-4B51-401F-9C68-7B2CC66F9F70}"/>
+    <hyperlink ref="F106" r:id="rId36" xr:uid="{945C9F7F-8C81-411C-9C54-690A717DE873}"/>
+    <hyperlink ref="F107:F110" r:id="rId37" display="https://www.airport.kr/ap_ko/896/subview.do" xr:uid="{7BCE5AA8-F2D6-44DA-AC1C-1B0A6DFEE9DE}"/>
+    <hyperlink ref="F111" r:id="rId38" xr:uid="{10C0960C-336F-49BB-B02B-F4358738ABBE}"/>
+    <hyperlink ref="F112" r:id="rId39" xr:uid="{08101135-4711-4AFA-A534-C153069108AA}"/>
+    <hyperlink ref="F114" r:id="rId40" xr:uid="{355347D9-E8B7-4225-9CE5-693222809B74}"/>
+    <hyperlink ref="F113" r:id="rId41" xr:uid="{32EC838C-10AC-4389-9E67-77A25BB150EC}"/>
+    <hyperlink ref="F117" r:id="rId42" xr:uid="{7A564C3D-D749-42CC-8BB9-3A069B5B68A1}"/>
+    <hyperlink ref="F116" r:id="rId43" xr:uid="{A1F0B522-F435-4AA0-9343-E09B9CF935D2}"/>
+    <hyperlink ref="F115" r:id="rId44" xr:uid="{7FE7E1BB-4539-443F-B8FC-4CDB97725F51}"/>
+    <hyperlink ref="F118" r:id="rId45" xr:uid="{CE1CEE9E-58C8-4A63-B600-D50F593DD1FA}"/>
+    <hyperlink ref="F122" r:id="rId46" xr:uid="{D107E2F9-BD07-438D-A387-4F2F62B7EE77}"/>
+    <hyperlink ref="F123:F126" r:id="rId47" display="https://www.airport.kr/ap_ko/886/subview.do" xr:uid="{DBAB0139-1487-41EF-89C0-B7E1573E00E7}"/>
+    <hyperlink ref="F127" r:id="rId48" xr:uid="{3E368DDB-64E6-4DCC-B7CD-B2BAA326CE3B}"/>
+    <hyperlink ref="F128:F129" r:id="rId49" display="https://www.airport.kr/ap_ko/904/subview.do" xr:uid="{5C25360D-7FBB-461A-8BB9-40F8F3128B54}"/>
+    <hyperlink ref="F130" r:id="rId50" xr:uid="{DAD4CA2F-F660-4BED-8E81-566F97784A6B}"/>
+    <hyperlink ref="F131" r:id="rId51" xr:uid="{5CD8103E-DEF9-4A57-9F69-22E52C7995F0}"/>
+    <hyperlink ref="F135" r:id="rId52" xr:uid="{1D26F793-4996-4070-AE01-4922B63F9C38}"/>
+    <hyperlink ref="F136" r:id="rId53" xr:uid="{AAB44477-EE3C-470E-9FBB-2CF9B6645D7F}"/>
+    <hyperlink ref="F132:F134" r:id="rId54" display="https://www.airport.kr/ap_ko/906/subview.do" xr:uid="{58C9AEE0-E4FA-4A1F-8E34-3F2D7C092568}"/>
+    <hyperlink ref="F140" r:id="rId55" xr:uid="{74DCEE96-9FF2-4235-B354-1C923D91F5EA}"/>
+    <hyperlink ref="F141:F143" r:id="rId56" display="https://www.airport.kr/ap_ko/910/subview.do" xr:uid="{BB0E8239-E533-423D-9735-3C7DAB961B02}"/>
+    <hyperlink ref="F144" r:id="rId57" xr:uid="{03303C03-9A1F-4D57-A1BD-7D8635145879}"/>
+    <hyperlink ref="F145" r:id="rId58" xr:uid="{B1073DF2-46BA-4DE5-90DF-D1BB4651C06B}"/>
+    <hyperlink ref="F147" r:id="rId59" xr:uid="{65627D1A-DF2F-4640-9F1E-3774DB986B0A}"/>
+    <hyperlink ref="F148:F151" r:id="rId60" display="https://www.airport.kr/ap_ko/886/subview.do" xr:uid="{F9762C48-81B1-4D72-AC78-372E4DC6F472}"/>
+    <hyperlink ref="F43" r:id="rId61" xr:uid="{1093DBB0-6A0C-4481-BEDD-1F5F3BD9410D}"/>
+    <hyperlink ref="F26" r:id="rId62" xr:uid="{34F86ACD-2D57-4CA8-88F7-E3704DFBB6A6}"/>
     <hyperlink ref="F10" r:id="rId63" xr:uid="{EAA1F23B-FCAC-4424-BB33-3E62A0B61A5D}"/>
-    <hyperlink ref="F24" r:id="rId64" xr:uid="{BADA6526-618E-4DC9-807A-1A8F8FE2AE85}"/>
-    <hyperlink ref="F42" r:id="rId65" xr:uid="{E6B69B9B-2A42-41F1-8A3A-7DF3D3F4C520}"/>
+    <hyperlink ref="F28" r:id="rId64" xr:uid="{BADA6526-618E-4DC9-807A-1A8F8FE2AE85}"/>
+    <hyperlink ref="F57" r:id="rId65" xr:uid="{E6B69B9B-2A42-41F1-8A3A-7DF3D3F4C520}"/>
     <hyperlink ref="F4" r:id="rId66" xr:uid="{9739787A-2C06-473F-8D5E-EC3E43548215}"/>
     <hyperlink ref="F6" r:id="rId67" xr:uid="{C17550B4-0DB8-4F14-BBEB-1C416C928541}"/>
     <hyperlink ref="F16" r:id="rId68" xr:uid="{54AC2318-9CBF-452D-9092-9B0D9712EFB8}"/>

--- a/db/공항 절차.xlsx
+++ b/db/공항 절차.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ICN-AI-chatbot\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00210EAC-6771-4F47-AE7B-E84E0C73A8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B49C76A-0619-4841-8C2E-EB714C0FD120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="4380" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="383">
   <si>
     <t>procedure_type</t>
   </si>
@@ -1251,6 +1251,10 @@
   </si>
   <si>
     <t>랩핑 기계에 캐리어를 올려놓고 버튼을 누르면 자동으로 랩핑되며, 랩핑 후에는 손잡이 부분을 칼로 뜯어 사용합니다. 자세한 위치 및 정보는 인천공항 안내데스크에서 문의할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>출국</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1648,8 +1652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="E169" sqref="E169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4563,7 +4567,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>199</v>
+        <v>382</v>
       </c>
       <c r="B151">
         <v>8</v>
@@ -4922,6 +4926,9 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A169" t="s">
+        <v>276</v>
+      </c>
       <c r="B169">
         <v>5</v>
       </c>
